--- a/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
+++ b/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B1017-E02E-4BE4-AE98-21226CE1C461}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,152 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+  <si>
+    <t>“软件工程系列课程教学辅助网站”项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义产品愿景和项目范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别用户类型及其特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每类用户选出用户代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别系统事件和反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举办需求访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查现有系统在需求方面的报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重用现有需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户界面以及技术原型</t>
+  </si>
+  <si>
+    <t>分析需求可实现性</t>
+  </si>
+  <si>
+    <t>需求按优先级排序</t>
+  </si>
+  <si>
+    <t>建立数据字典</t>
+  </si>
+  <si>
+    <t>为需求建模</t>
+  </si>
+  <si>
+    <t>分析系统与外部世界之间的联系</t>
+  </si>
+  <si>
+    <t>需求规范说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用需求文档模板</t>
+  </si>
+  <si>
+    <t>明确需求来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录业务规则</t>
+  </si>
+  <si>
+    <t>记录非功能需求</t>
+  </si>
+  <si>
+    <t>需求验证</t>
+  </si>
+  <si>
+    <t>需求评审</t>
+  </si>
+  <si>
+    <t>测试需求</t>
+  </si>
+  <si>
+    <t>定义验收标准</t>
+  </si>
+  <si>
+    <t>需求管理</t>
+  </si>
+  <si>
+    <t>建立一个需求变更控制流程</t>
+  </si>
+  <si>
+    <t>对需求变更进行影响分析</t>
+  </si>
+  <si>
+    <t>建立基线并控制需求集合版本</t>
+  </si>
+  <si>
+    <t>维护需求变更的历史记录</t>
+  </si>
+  <si>
+    <t>跟踪每个需求的状态</t>
+  </si>
+  <si>
+    <t>维护一个需求可跟踪矩阵</t>
+  </si>
+  <si>
+    <t>使用需求管理工具</t>
+  </si>
+  <si>
+    <t>需求阶段收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总文档</t>
+  </si>
+  <si>
+    <t>输入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +188,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +478,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="31.06640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A28"/>
+    <mergeCell ref="B1:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
+++ b/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B1017-E02E-4BE4-AE98-21226CE1C461}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACD102-96BA-4747-8755-B6CA11599EF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>“软件工程系列课程教学辅助网站”项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,54 @@
   </si>
   <si>
     <t>输出：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：项目总结报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：界面原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：项目可行性分析文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：用户访谈记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：用户访谈记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：愿景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：需求项目工程计划文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：软件需求变更文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：需求模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：愿景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：软件需求变更文档、需求规格说明书、项目可行性分析、软件成果、需求项目工程计划文档、项目章程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,8 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -197,7 +248,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,394 +536,394 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
     <col min="2" max="2" width="14.9296875" customWidth="1"/>
     <col min="3" max="3" width="31.06640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
+++ b/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655BB65D-F1C1-4FEC-B620-5634AE8A0C09}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCFF4CE-C3B3-4756-A73B-39A7D773B52D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>“软件工程系列课程教学辅助网站”项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>在数据库中帮助存储各种类型的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,11 +354,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,16 +363,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -669,473 +670,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="6"/>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:A28"/>
     <mergeCell ref="B1:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
+++ b/非受控文档/2_叶柏成/需求阶段WBS输入输出表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCFF4CE-C3B3-4756-A73B-39A7D773B52D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C120F0C-6B51-4FC7-8461-61620B2B9F54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交项目</t>
+    <t>上传文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +657,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
